--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a c e r\OneDrive\Pictures\Semester 7\TA1\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD307346-07BB-4B26-B847-70538BF495C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="205">
   <si>
     <t>No</t>
   </si>
@@ -388,29 +397,278 @@
   </si>
   <si>
     <t xml:space="preserve">Anggota Satresnarkoba Polres Pringsewu mengamankan AW (30), warga Gadingrejo, yang diduga terlibat penyalahgunaan narkoba. Sementara dua rekannya kabur.  Dalam penggerebekan yang berlangsung di Kecamatan Gadingrejo, Sabtu, 29 Oktober 2022, polisi menyita barang bukti sabu sisa pakai seberat 0,25 gram dan bong. Sementara dua pelaku, salah satunya pemilik rumah berhasil melarikan diri. "Dua pelaku yang kabur ini masih terus kami kejar," tegasnya. Dari informasi masyarakat dan hasil penyelidikan, anggota Satresnarkoba mengamankan AM di wilayah Desa Muara Jaya Kecamatan Sukadana, Rabu 2 Oktober 2022. Polisi juga menyita barang bukti satu plastik klip bening yang didalamnya berisi kristal putih diduga narkotika golongan 1 jenis sabu-sabu. Dalam penggerebekan tersebut, polisi menyita barang bukti satu plastik klip bening yang didalamnya berisi kristal putih diduga keras narkotika golongan 1 jenis sabu-sabu. (*) </t>
+  </si>
+  <si>
+    <t>Rubrik</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Nasional</t>
+  </si>
+  <si>
+    <t>plts terapung, energi baru terbarukan, PLN</t>
+  </si>
+  <si>
+    <t>reduksi, emisi karbon, PLN</t>
+  </si>
+  <si>
+    <t>roadmap, instalasi, listrik, jaringan, PLN</t>
+  </si>
+  <si>
+    <t>plts, g20, PLN</t>
+  </si>
+  <si>
+    <t>pltg, g20, pasokan listrik, PLN</t>
+  </si>
+  <si>
+    <t>Lowongan kerja</t>
+  </si>
+  <si>
+    <t>opertor moulding, PT. Mirota Nayan, Mirota Kampus, Lowongan Kerja</t>
+  </si>
+  <si>
+    <t>plts terapung, listrik, pln</t>
+  </si>
+  <si>
+    <t>Ekonomi Bisnis</t>
+  </si>
+  <si>
+    <t>bflp, feature leader, human capital, bbri, rekrutmen, bri, lowongan kerja</t>
+  </si>
+  <si>
+    <t>Loker PT Petrolindo, PT Petrolindo megah perkasa, lowongan bumn, loker bumn, lowongan kerja</t>
+  </si>
+  <si>
+    <t>Berita Lainnya</t>
+  </si>
+  <si>
+    <t>Loker PT KAI, Loker BUMN, Lowongan BUMN, PT.KAI, Lowongan Kerja</t>
+  </si>
+  <si>
+    <t>Mesuji</t>
+  </si>
+  <si>
+    <t>Pertumbuhan Angkatan Kerja, angkatan kerja, lowongan kerja</t>
+  </si>
+  <si>
+    <t>Advetorial</t>
+  </si>
+  <si>
+    <t>panwascam, bawaslu tulang bawang, lowongan kerja</t>
+  </si>
+  <si>
+    <t>Politika</t>
+  </si>
+  <si>
+    <t>PDI perjuangan, PDIP, Jokowi</t>
+  </si>
+  <si>
+    <t>Capres, Golkar, Jokowi</t>
+  </si>
+  <si>
+    <t>Berita Utama</t>
+  </si>
+  <si>
+    <t>Kapolda, Kapolri, Jokowi, Presiden</t>
+  </si>
+  <si>
+    <t>Surat Telegram Rahasia, Polri, Jokowi</t>
+  </si>
+  <si>
+    <t>Gagal Ginjal Akut, Dipanggil, Polri, bareskrim polri, kasus</t>
+  </si>
+  <si>
+    <t>Megawati, PDIP, Jokowi</t>
+  </si>
+  <si>
+    <t>Berita utama</t>
+  </si>
+  <si>
+    <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, Modus, Perusahaan, Bareskrim Polri</t>
+  </si>
+  <si>
+    <t>periksa, akut, gagal ginjal, bareskrim polri, kasus</t>
+  </si>
+  <si>
+    <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, dilaporkan, perusahaan, bareskrim polri, farmasi</t>
+  </si>
+  <si>
+    <t>akut, tersangka, gagal ginjal, polri, bareskrim polri</t>
+  </si>
+  <si>
+    <t>akut anak, gagal ginjal, perusahaan, bareskrim polri, farmasi</t>
+  </si>
+  <si>
+    <t>Pusat kota, penginapan, hotel</t>
+  </si>
+  <si>
+    <t>WISATA &amp; KULINER</t>
+  </si>
+  <si>
+    <t>Destinasi lampung, wisata lampung, Penginapan, hotel, pantai</t>
+  </si>
+  <si>
+    <t>View Terbaik, penginapan, hotel</t>
+  </si>
+  <si>
+    <t>pelayanan memuaskan, terbaik, hotel</t>
+  </si>
+  <si>
+    <t>Promo, hotel, weekend</t>
+  </si>
+  <si>
+    <t>bandar lampung, penginapan, hotel</t>
+  </si>
+  <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>pengabdian, UBL</t>
+  </si>
+  <si>
+    <t>Lulusan UBL, Wisudah, UBL</t>
+  </si>
+  <si>
+    <t>UBL, Riset, PT Angkasa Wiratama</t>
+  </si>
+  <si>
+    <t>Universitas terbaik, UBL, Universitas Bandar Lampung</t>
+  </si>
+  <si>
+    <t>Riset, UBL</t>
+  </si>
+  <si>
+    <t>UBL, Riset, GMF Aero Asia</t>
+  </si>
+  <si>
+    <t>Otomotif</t>
+  </si>
+  <si>
+    <t>hmdi, mobil terbaru, dealer lampung, hyundai stargazer, gaikindo, hyundai</t>
+  </si>
+  <si>
+    <t>bocoran hyindai stargazer terbaru, stargazer, test drive, hyundai</t>
+  </si>
+  <si>
+    <t>tiket final piala dunia, hyundai, mobil listrik, mobil</t>
+  </si>
+  <si>
+    <t>Tanggamus</t>
+  </si>
+  <si>
+    <t>Bupati tanggamus, dewi handajani, hyundai, bbm, mobil listrik</t>
+  </si>
+  <si>
+    <t>Promo hyundai, giias 2022, hyundai</t>
+  </si>
+  <si>
+    <t>Suzuki All New Ertiga Hybrid Resmi Mengaspal di Lampung, Simak Keunggulannya</t>
+  </si>
+  <si>
+    <t>new ertiga hybrid, suzuki</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Hukum kriminal</t>
+  </si>
+  <si>
+    <t>Tragedi Kanjuruhan, Arema, tersangka, Malang, Jawa timur</t>
+  </si>
+  <si>
+    <t>aturan pengamanan sepakbola, aturan sepakbola, perkap, tragedi kanjuruhan, polri</t>
+  </si>
+  <si>
+    <t>tersangka kanjuruhan, kanjuruhan, tragedi kanjuruhan, stadion kanjuruhan</t>
+  </si>
+  <si>
+    <t>tgipf, tragedi kanjuruhan, pssi</t>
+  </si>
+  <si>
+    <t>tragedi kanjuruhan, peran tersangka, 6 tersangka, arema, malang , persebaya</t>
+  </si>
+  <si>
+    <t>penjual dawet, tragedi kanjuruhan, korban, mabes polri, viral</t>
+  </si>
+  <si>
+    <t>tv analog, tv digital, set top box</t>
+  </si>
+  <si>
+    <t>Provensi</t>
+  </si>
+  <si>
+    <t>tv analog, tv digital, saluran tv digital, kemenkominfo</t>
+  </si>
+  <si>
+    <t>bersertifikat, merek, tv digital, set top box, kominfo</t>
+  </si>
+  <si>
+    <t>penghentian saluran tv analog, tv analog, tv digital</t>
+  </si>
+  <si>
+    <t>159, uu cipta kerja, siaran tv analog, siaran tv digital, stb, set top box, harga set top box, gratis, whatsapp, pemerintah</t>
+  </si>
+  <si>
+    <t>VIRAL &amp; VIDEO</t>
+  </si>
+  <si>
+    <t>tv analog, tv digital, kominfo, viral, presiden jokowi</t>
+  </si>
+  <si>
+    <t>Lmpung Utara</t>
+  </si>
+  <si>
+    <t>Kejari Kotabumi, oknum jaksa, narkotika, narkoba</t>
+  </si>
+  <si>
+    <t>napi, rutan, narkoba</t>
+  </si>
+  <si>
+    <t>dibebaskan, 4 terduga, bnnp lampung, terduga, polresta bandar lampung, penyalahgunaan narkoba, narkoba</t>
+  </si>
+  <si>
+    <t>pemusnahan, barang bukti, polda lampung, narkoba</t>
+  </si>
+  <si>
+    <t>tulang bawang</t>
+  </si>
+  <si>
+    <t>polres tulang bawang, pengedar, sabu, narkoba</t>
+  </si>
+  <si>
+    <t>Pringsewu</t>
+  </si>
+  <si>
+    <t>polres pringsewu, barang bukti, satresnarkoba, sabu, narkoba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -421,7 +679,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -442,8 +700,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF073763"/>
@@ -457,8 +721,10 @@
       <bottom style="thin">
         <color rgb="FF073763"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF073763"/>
       </right>
@@ -468,6 +734,7 @@
       <bottom style="thin">
         <color rgb="FF073763"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -476,91 +743,103 @@
       <right style="thin">
         <color rgb="FF073763"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF073763"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF073763"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF073763"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF073763"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF073763"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -750,24 +1029,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="154.75"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="38.06640625" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" customWidth="1"/>
+    <col min="6" max="6" width="40.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,857 +1063,1224 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="178.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="267.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="165.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="191.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="229.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="191.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" ht="27.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="191.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="318.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="267.75" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="216.75" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="255" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="143.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="178.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="8">
-        <v>21.0</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="8">
-        <v>22.0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="114.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="8">
-        <v>23.0</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="8">
-        <v>24.0</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="129.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="331.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="8">
-        <v>31.0</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="8">
-        <v>32.0</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="8">
-        <v>33.0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="8">
-        <v>34.0</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="8">
-        <v>36.0</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="5">
-        <v>37.0</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="204" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="5">
-        <v>38.0</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="216.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="5">
-        <v>39.0</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="5">
-        <v>42.0</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="178.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="8">
-        <v>43.0</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="8">
-        <v>44.0</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="8">
-        <v>46.0</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="8">
-        <v>47.0</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>47</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="7">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="8">
-        <v>48.0</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="5">
-        <v>49.0</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="5">
-        <v>51.0</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>51</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="5">
-        <v>52.0</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="5">
-        <v>53.0</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="357" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="5">
-        <v>54.0</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="229.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="E55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="267.75" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7">
-        <v>56.0</v>
-      </c>
-      <c r="B57" s="8">
-        <v>56.0</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7">
-        <v>57.0</v>
-      </c>
-      <c r="B58" s="8">
-        <v>57.0</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7">
-        <v>58.0</v>
-      </c>
-      <c r="B59" s="8">
-        <v>58.0</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="E58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="10">
-        <v>59.0</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="E59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="7">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="E61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a c e r\OneDrive\Pictures\Semester 7\TA1\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD307346-07BB-4B26-B847-70538BF495C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB64B57-D3AE-4E8E-B828-CCF2EC4FF5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,9 +618,6 @@
     <t>tv analog, tv digital, kominfo, viral, presiden jokowi</t>
   </si>
   <si>
-    <t>Lmpung Utara</t>
-  </si>
-  <si>
     <t>Kejari Kotabumi, oknum jaksa, narkotika, narkoba</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t>polres pringsewu, barang bukti, satresnarkoba, sabu, narkoba</t>
+  </si>
+  <si>
+    <t>Lampung Utara</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1073,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="178.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="242.25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="344.25" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="114.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="331.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="408" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="280.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="280.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="369.75" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="306" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="306" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="229.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="306" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="267.75" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="216.75" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="204" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="191.25" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="242.25" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="267.75" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="344.25" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="229.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2167,13 +2167,13 @@
         <v>112</v>
       </c>
       <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
         <v>196</v>
       </c>
-      <c r="F56" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" ht="306" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2190,10 +2190,10 @@
         <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="216.75" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2210,10 +2210,10 @@
         <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2230,10 +2230,10 @@
         <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="89.25" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="255" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2247,13 +2247,13 @@
         <v>120</v>
       </c>
       <c r="E60" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" t="s">
         <v>201</v>
       </c>
-      <c r="F60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:6" ht="293.25" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2267,10 +2267,10 @@
         <v>122</v>
       </c>
       <c r="E61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" t="s">
         <v>203</v>
-      </c>
-      <c r="F61" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
